--- a/data/assets/Авраменко Денис Александрович.xlsx
+++ b/data/assets/Авраменко Денис Александрович.xlsx
@@ -2291,19 +2291,21 @@
       </c>
       <c r="B65" s="13" t="inlineStr">
         <is>
-          <t>Физ-ра</t>
+          <t>Физика</t>
         </is>
       </c>
       <c r="C65" s="13" t="inlineStr">
         <is>
-          <t>Ф-10-1, Ф-10-2</t>
-        </is>
-      </c>
-      <c r="D65" s="13" t="inlineStr"/>
-      <c r="E65" s="13" t="inlineStr">
-        <is>
-          <t>спортзал</t>
-        </is>
+          <t>Ф-10-1</t>
+        </is>
+      </c>
+      <c r="D65" s="13" t="inlineStr">
+        <is>
+          <t>Жихарева Т.Е.</t>
+        </is>
+      </c>
+      <c r="E65" s="13" t="n">
+        <v>205</v>
       </c>
       <c r="F65" s="4" t="n"/>
       <c r="G65" s="29" t="n"/>
